--- a/docs/09_static_analysis/cppcheck_20210610_v0.5.0_check.xlsx
+++ b/docs/09_static_analysis/cppcheck_20210610_v0.5.0_check.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\17Z990_PC5\Downloads\security_specialist\03.cmu\project\cmu_project\docs\09_static_analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\cmu_project1\docs\09_static_analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1417,19 +1417,19 @@
   <dimension ref="A1:G101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="61.4140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+    <col min="1" max="1" width="61.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
     <col min="3" max="3" width="56" customWidth="1"/>
-    <col min="5" max="5" width="15.08203125" customWidth="1"/>
+    <col min="5" max="5" width="15.125" customWidth="1"/>
     <col min="6" max="6" width="19" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
         <v>125</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>146</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>146</v>
       </c>
@@ -1495,7 +1495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>146</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>146</v>
       </c>
@@ -1541,7 +1541,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>146</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>146</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>146</v>
       </c>
@@ -1610,7 +1610,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>146</v>
       </c>
@@ -1633,7 +1633,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>146</v>
       </c>
@@ -1656,7 +1656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>146</v>
       </c>
@@ -1679,7 +1679,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>146</v>
       </c>
@@ -1702,7 +1702,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>146</v>
       </c>
@@ -1725,7 +1725,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>146</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>146</v>
       </c>
@@ -1771,7 +1771,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>146</v>
       </c>
@@ -1794,7 +1794,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>146</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>146</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>146</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>146</v>
       </c>
@@ -1886,7 +1886,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>146</v>
       </c>
@@ -1909,7 +1909,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>146</v>
       </c>
@@ -1932,7 +1932,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>146</v>
       </c>
@@ -1955,7 +1955,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>146</v>
       </c>
@@ -1978,7 +1978,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>146</v>
       </c>
@@ -2001,7 +2001,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>146</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>146</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>146</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>146</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>146</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>146</v>
       </c>
@@ -2139,7 +2139,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>146</v>
       </c>
@@ -2162,7 +2162,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>146</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>146</v>
       </c>
@@ -2208,7 +2208,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>146</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>146</v>
       </c>
@@ -2254,7 +2254,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>146</v>
       </c>
@@ -2277,7 +2277,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>146</v>
       </c>
@@ -2300,7 +2300,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
         <v>127</v>
       </c>
@@ -2320,7 +2320,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
         <v>139</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>146</v>
       </c>
@@ -2363,7 +2363,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>146</v>
       </c>
@@ -2386,7 +2386,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>146</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>146</v>
       </c>
@@ -2432,7 +2432,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>146</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>146</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>146</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>146</v>
       </c>
@@ -2524,7 +2524,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>146</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>146</v>
       </c>
@@ -2570,7 +2570,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>146</v>
       </c>
@@ -2593,7 +2593,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>146</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>146</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>146</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>146</v>
       </c>
@@ -2685,7 +2685,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>146</v>
       </c>
@@ -2708,7 +2708,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>146</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>146</v>
       </c>
@@ -2754,7 +2754,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>146</v>
       </c>
@@ -2777,7 +2777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>146</v>
       </c>
@@ -2800,7 +2800,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
         <v>148</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
         <v>149</v>
       </c>
@@ -2846,7 +2846,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>146</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
         <v>148</v>
       </c>
@@ -2892,7 +2892,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
         <v>149</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>146</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
         <v>148</v>
       </c>
@@ -2961,7 +2961,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
         <v>149</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>146</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>146</v>
       </c>
@@ -3030,7 +3030,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>146</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>146</v>
       </c>
@@ -3076,7 +3076,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A73" s="1" t="s">
         <v>148</v>
       </c>
@@ -3099,7 +3099,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A74" s="1" t="s">
         <v>149</v>
       </c>
@@ -3122,7 +3122,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B75" s="1" t="s">
         <v>145</v>
       </c>
@@ -3142,7 +3142,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B76" s="1" t="s">
         <v>135</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B77" s="1" t="s">
         <v>127</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>146</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>146</v>
       </c>
@@ -3228,7 +3228,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>146</v>
       </c>
@@ -3251,7 +3251,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>146</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>146</v>
       </c>
@@ -3297,7 +3297,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>146</v>
       </c>
@@ -3320,7 +3320,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>146</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>146</v>
       </c>
@@ -3366,7 +3366,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B86" s="1" t="s">
         <v>127</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B87" s="1" t="s">
         <v>127</v>
       </c>
@@ -3406,7 +3406,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B88" s="1" t="s">
         <v>127</v>
       </c>
@@ -3426,7 +3426,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B89" s="1" t="s">
         <v>127</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B90" s="1" t="s">
         <v>127</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B91" s="1" t="s">
         <v>127</v>
       </c>
@@ -3486,7 +3486,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B92" s="1" t="s">
         <v>127</v>
       </c>
@@ -3506,7 +3506,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B93" s="1" t="s">
         <v>127</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B94" s="1" t="s">
         <v>127</v>
       </c>
@@ -3546,7 +3546,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B95" s="1" t="s">
         <v>127</v>
       </c>
@@ -3566,7 +3566,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B96" s="1" t="s">
         <v>127</v>
       </c>
@@ -3586,7 +3586,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B97" s="1" t="s">
         <v>127</v>
       </c>
@@ -3606,7 +3606,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B98" s="1" t="s">
         <v>127</v>
       </c>
@@ -3626,7 +3626,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B99" s="1" t="s">
         <v>127</v>
       </c>
@@ -3646,7 +3646,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="B100" s="1" t="s">
         <v>127</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>146</v>
       </c>
